--- a/output/yingxi-1/中洲迎喜一期.xlsx
+++ b/output/yingxi-1/中洲迎喜一期.xlsx
@@ -399,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K643"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
@@ -417,37 +417,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>ID</v>
       </c>
       <c r="B1" t="str">
-        <v>buildingName</v>
+        <v>楼栋</v>
       </c>
       <c r="C1" t="str">
-        <v>buildingbranch</v>
+        <v>单元</v>
       </c>
       <c r="D1" t="str">
-        <v>floor</v>
+        <v>楼层</v>
       </c>
       <c r="E1" t="str">
-        <v>housenb</v>
+        <v>户型编号</v>
       </c>
       <c r="F1" t="str">
-        <v>ysbuildingarea</v>
+        <v>建筑面积(m²)</v>
       </c>
       <c r="G1" t="str">
-        <v>ysinsidearea</v>
+        <v>套内面积(m²)</v>
       </c>
       <c r="H1" t="str">
-        <v>useRate</v>
+        <v>利用率</v>
       </c>
       <c r="I1" t="str">
-        <v>askpriceeachB</v>
+        <v>折前单价(w)</v>
       </c>
       <c r="J1" t="str">
-        <v>askpricetotalB</v>
+        <v>折前总价(w)</v>
       </c>
       <c r="K1" t="str">
-        <v>lastStatusName</v>
+        <v>状态</v>
       </c>
     </row>
     <row r="2">
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="str">
-        <v>已签合同</v>
+        <v>已备案</v>
       </c>
     </row>
     <row r="47">
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="str">
-        <v>已签认购书</v>
+        <v>已备案</v>
       </c>
     </row>
     <row r="89">
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="str">
-        <v>已签认购书</v>
+        <v>已备案</v>
       </c>
     </row>
     <row r="144">
@@ -15456,13 +15456,13 @@
         <v>0.74</v>
       </c>
       <c r="I430">
-        <v>0</v>
+        <v>7.1261</v>
       </c>
       <c r="J430">
-        <v>0</v>
+        <v>693.1606</v>
       </c>
       <c r="K430" t="str">
-        <v>已签认购书</v>
+        <v>期房待售</v>
       </c>
     </row>
     <row r="431">
@@ -20187,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="K565" t="str">
-        <v>已签认购书</v>
+        <v>已备案</v>
       </c>
     </row>
     <row r="566">
